--- a/results/new_ff_jgr/15x15/new_ff_jgr_15x15_True_2_500.xlsx
+++ b/results/new_ff_jgr/15x15/new_ff_jgr_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.14031098</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14031098</v>
+        <v>12.49058082</v>
       </c>
       <c r="H2" t="n">
-        <v>12.49061324</v>
+        <v>1575.85299786</v>
       </c>
       <c r="I2" t="n">
         <v>57.69127770335904</v>
@@ -548,10 +548,10 @@
         <v>0.001148685071892543</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001148685071892543</v>
+        <v>8.033369942155396</v>
       </c>
       <c r="N2" t="n">
-        <v>8.0334308666908</v>
+        <v>2485.036226967477</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.1280249</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1280249</v>
+        <v>29.43882158</v>
       </c>
       <c r="H3" t="n">
-        <v>29.43881786</v>
+        <v>8019.925160420001</v>
       </c>
       <c r="I3" t="n">
         <v>99.18655241695177</v>
@@ -595,10 +595,10 @@
         <v>0.008923422792778416</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008923422792778416</v>
+        <v>12.47431675366376</v>
       </c>
       <c r="N3" t="n">
-        <v>12.47431186714718</v>
+        <v>7083.154640962945</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.17875634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08937817999999999</v>
+        <v>4.11560754</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1156187</v>
+        <v>277.8461857199999</v>
       </c>
       <c r="I4" t="n">
         <v>31.6665426570015</v>
@@ -642,10 +642,10 @@
         <v>0.01914709508266487</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009573849616562876</v>
+        <v>2.801761894428413</v>
       </c>
       <c r="N4" t="n">
-        <v>2.801780387978514</v>
+        <v>405.9916520246722</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.13327854</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06663935999999999</v>
+        <v>7.68556358</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6855791</v>
+        <v>1047.9327593</v>
       </c>
       <c r="I5" t="n">
         <v>49.39612452648966</v>
@@ -689,10 +689,10 @@
         <v>0.003665958178585002</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00183314255136562</v>
+        <v>3.19335702422032</v>
       </c>
       <c r="N5" t="n">
-        <v>3.193372929899767</v>
+        <v>901.7449027742963</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.2038559</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05096374</v>
+        <v>1.21630376</v>
       </c>
       <c r="H6" t="n">
-        <v>1.21630924</v>
+        <v>44.81190994</v>
       </c>
       <c r="I6" t="n">
         <v>17.64407523169075</v>
@@ -736,10 +736,10 @@
         <v>0.003563518811883176</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0008905839049654821</v>
+        <v>0.894804264025882</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8948067571254796</v>
+        <v>68.82786858840181</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.15075494</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03768874000000001</v>
+        <v>2.38566054</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38565726</v>
+        <v>184.7347333</v>
       </c>
       <c r="I7" t="n">
         <v>30.13002809800171</v>
@@ -783,10 +783,10 @@
         <v>0.01550765583107745</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003876858299312201</v>
+        <v>1.106319526982451</v>
       </c>
       <c r="N7" t="n">
-        <v>1.106305889427085</v>
+        <v>178.8789597477206</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.26982746</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04497112</v>
+        <v>0.6741735599999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6741749600000001</v>
+        <v>17.28532254</v>
       </c>
       <c r="I8" t="n">
         <v>12.66612907131862</v>
@@ -830,10 +830,10 @@
         <v>0.03887247480600492</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00647855261873108</v>
+        <v>0.5766381271694905</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5766392542660614</v>
+        <v>30.90608137484421</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.14817782</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02469602</v>
+        <v>0.9898737399999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9898807799999999</v>
+        <v>51.0787751</v>
       </c>
       <c r="I9" t="n">
         <v>21.60369030674481</v>
@@ -877,10 +877,10 @@
         <v>0.008824945028560474</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001470727179483995</v>
+        <v>0.5129951293516239</v>
       </c>
       <c r="N9" t="n">
-        <v>0.512993608637962</v>
+        <v>56.68871104109657</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.26124788</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03265602</v>
+        <v>0.31055606</v>
       </c>
       <c r="H10" t="n">
-        <v>0.31055638</v>
+        <v>5.21340836</v>
       </c>
       <c r="I10" t="n">
         <v>8.348967992097355</v>
@@ -924,10 +924,10 @@
         <v>0.006725854990728883</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0008408107307652178</v>
+        <v>0.2713818172747967</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2713831355106185</v>
+        <v>11.351456311147</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.14372512</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01796554</v>
+        <v>0.50125204</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5012570200000001</v>
+        <v>18.0513798</v>
       </c>
       <c r="I11" t="n">
         <v>15.08483372188218</v>
@@ -971,10 +971,10 @@
         <v>0.009598101588011432</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001199690469598593</v>
+        <v>0.2639119256366124</v>
       </c>
       <c r="N11" t="n">
-        <v>0.263915369855208</v>
+        <v>18.59231161902837</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.2903065400000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02903044</v>
+        <v>0.21404972</v>
       </c>
       <c r="H12" t="n">
-        <v>0.21405176</v>
+        <v>2.7637788</v>
       </c>
       <c r="I12" t="n">
         <v>6.413881488732311</v>
@@ -1018,10 +1018,10 @@
         <v>0.007521404555092268</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0007521681462548656</v>
+        <v>0.1852223992585556</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1852255076631741</v>
+        <v>6.426463212330358</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.14346824</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0143467</v>
+        <v>0.29264068</v>
       </c>
       <c r="H13" t="n">
-        <v>0.29264312</v>
+        <v>8.136545459999999</v>
       </c>
       <c r="I13" t="n">
         <v>12.40311551784866</v>
@@ -1065,10 +1065,10 @@
         <v>0.01027963958913761</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00102791776902618</v>
+        <v>0.1696487346592381</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696519123186425</v>
+        <v>9.921555567198824</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/new_ff_jgr/15x15/new_ff_jgr_15x15_True_2_500.xlsx
+++ b/results/new_ff_jgr/15x15/new_ff_jgr_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
